--- a/data/raw_data/mp_color.xlsx
+++ b/data/raw_data/mp_color.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliafoley/Desktop/AF-Microplastics-2022/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35106C16-DEB7-BD46-B584-1FE5DCC67D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33208D4-6EEF-4045-85A2-EF789D1D1C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16560" xr2:uid="{77929277-1AA0-5140-9C5D-45060F6BCED0}"/>
   </bookViews>
@@ -49,9 +49,6 @@
     <t>red</t>
   </si>
   <si>
-    <t>transparent/white</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>obs</t>
+  </si>
+  <si>
+    <t>TRN/white</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -429,7 +429,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -456,7 +456,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>288</v>
@@ -467,7 +467,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>400</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>39</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>36</v>

--- a/data/raw_data/mp_color.xlsx
+++ b/data/raw_data/mp_color.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliafoley/Desktop/AF-Microplastics-2022/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33208D4-6EEF-4045-85A2-EF789D1D1C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAD01D3-34F2-574C-A1D2-9D650380038D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16560" xr2:uid="{77929277-1AA0-5140-9C5D-45060F6BCED0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>color</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>TRN/white</t>
+  </si>
+  <si>
+    <t>original</t>
   </si>
 </sst>
 </file>
@@ -413,15 +416,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC581A3-1D45-6B44-AE33-64DEDE6A62EA}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,71 +434,98 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
+        <f>D2/2</f>
+        <v>63.5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>127</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
+        <f>D3/2</f>
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>78</v>
       </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4">
+        <f>D4/2</f>
+        <v>144</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>288</v>
       </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
+        <f>D5/2</f>
+        <v>200</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>400</v>
       </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
+        <f>D6/2</f>
+        <v>19.5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
+        <f>D7/2</f>
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
